--- a/biology/Botanique/Arboretum_du_Kirchberg/Arboretum_du_Kirchberg.xlsx
+++ b/biology/Botanique/Arboretum_du_Kirchberg/Arboretum_du_Kirchberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Arboretum du Kirchberg est un arboretum situé sur le Plateau du Kirchberg à Luxembourg, au Luxembourg. 
@@ -489,7 +501,7 @@
 Parc Central
 Parc Réimerwee
 Parc Klosegrënnchen.
-Le Musée national d'histoire naturelle du Luxembourg assure la gestion scientifique de la collection, qui s’élargit constamment et comporte actuellement quelque 450 espèces et variétés, étiquetées en 4 langues. Le financement des plantations est assuré par le Fonds d’urbanisation et d’aménagement du plateau de Kirchberg[1].
+Le Musée national d'histoire naturelle du Luxembourg assure la gestion scientifique de la collection, qui s’élargit constamment et comporte actuellement quelque 450 espèces et variétés, étiquetées en 4 langues. Le financement des plantations est assuré par le Fonds d’urbanisation et d’aménagement du plateau de Kirchberg.
 </t>
         </is>
       </c>
@@ -518,7 +530,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée national d'histoire naturelle du Luxembourg publie chaque année un Index seminum dédié à l'arboretum.
 </t>
